--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young hwa\Desktop\yh\source\solRTMP_filelive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A0FFBF-938A-47D6-8334-D1D0D661DDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FED1914-6624-4DB8-B782-2F5652CE22DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12816" uniqueCount="1639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12817" uniqueCount="1640">
   <si>
     <t>제목</t>
   </si>
@@ -4946,6 +4946,9 @@
   </si>
   <si>
     <t>/CLIP/COCOS/CAPTION/B120162788/9713866a-a004-482c-b21f-d0fb2186c2e7.srt</t>
+  </si>
+  <si>
+    <t>B120214091D11070478</t>
   </si>
 </sst>
 </file>
@@ -5048,7 +5051,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5093,6 +5096,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5644,7 +5650,7 @@
   <dimension ref="A1:T1084"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5668,68 +5674,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="17" t="s">
         <v>868</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15" t="s">
+      <c r="L1" s="16"/>
+      <c r="M1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15" t="s">
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15" t="s">
+      <c r="R1" s="16"/>
+      <c r="S1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="15"/>
+      <c r="T1" s="16"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="17"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="18"/>
       <c r="K2" s="7" t="s">
         <v>9</v>
       </c>
@@ -5766,7 +5772,7 @@
         <v>91</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>92</v>
+        <v>1639</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>11</v>
@@ -5927,7 +5933,9 @@
       <c r="A6" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
